--- a/medicine/Psychotrope/Abbaye_Notre-Dame_d'Orval/Abbaye_Notre-Dame_d'Orval.xlsx
+++ b/medicine/Psychotrope/Abbaye_Notre-Dame_d'Orval/Abbaye_Notre-Dame_d'Orval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abbaye_Notre-Dame_d%27Orval</t>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'abbaye Notre-Dame d'Orval (ou abbaye d'Orval) est un monastère cistercien situé en Belgique, à Villers-devant-Orval, dans la province de Luxembourg.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abbaye_Notre-Dame_d%27Orval</t>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,12 +529,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Situation
-Isolée dans un vallon au milieu de la forêt, l’abbaye se trouve à deux kilomètres au nord-est du village de Villers-devant-Orval, à un kilomètre au nord de la frontière française, à l’entrée d’un saillant de la Belgique en territoire français. Elle est bordée à l’ouest par la route nationale 88 reliant Florenville et Athus (Aubange). Le ruisseau la Mouline, alimenté par les sources de l'Orval, passe (largement en souterrain) à travers le site de l’abbaye, et en rejoint deux autres, à la sortie du domaine, pour former une rivière, la Marche avant d’entrer dans Villers-devant-Orval.
-Étendue
-Le domaine central comporte la zone proprement monastique, entourée du mur de clôture, et les terres avoisinantes principalement des forêts, entourées par un fossé qui est encore visible aujourd'hui. Mais au delà, au fil des donations, du XII° au XVIII°s., le domaine s'est étendu sur quelque trois cents propriétés de tailles diverses, depuis la région de Huy au nord jusqu'à celle de Verdun au sud : fermes comme les "granges" de Blanchampagne ou Conques[1], champs et bois, exploitations minières et forges, maisons de "refuge" à Montmédy ou Huy,  etc. 
-Accès en transports publics
-L'abbaye se situe à proximité immédiate de l'arrêt Orval carrefour desservi en semaine uniquement par la ligne de bus 24.
+          <t>Situation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isolée dans un vallon au milieu de la forêt, l’abbaye se trouve à deux kilomètres au nord-est du village de Villers-devant-Orval, à un kilomètre au nord de la frontière française, à l’entrée d’un saillant de la Belgique en territoire français. Elle est bordée à l’ouest par la route nationale 88 reliant Florenville et Athus (Aubange). Le ruisseau la Mouline, alimenté par les sources de l'Orval, passe (largement en souterrain) à travers le site de l’abbaye, et en rejoint deux autres, à la sortie du domaine, pour former une rivière, la Marche avant d’entrer dans Villers-devant-Orval.
 </t>
         </is>
       </c>
@@ -533,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Abbaye_Notre-Dame_d%27Orval</t>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,171 +561,767 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étendue</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le domaine central comporte la zone proprement monastique, entourée du mur de clôture, et les terres avoisinantes principalement des forêts, entourées par un fossé qui est encore visible aujourd'hui. Mais au delà, au fil des donations, du XII° au XVIII°s., le domaine s'est étendu sur quelque trois cents propriétés de tailles diverses, depuis la région de Huy au nord jusqu'à celle de Verdun au sud : fermes comme les "granges" de Blanchampagne ou Conques, champs et bois, exploitations minières et forges, maisons de "refuge" à Montmédy ou Huy,  etc. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Accès en transports publics</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abbaye se situe à proximité immédiate de l'arrêt Orval carrefour desservi en semaine uniquement par la ligne de bus 24.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondation
-Le site de l'abbaye est occupé bien avant l'ère chrétienne: les fouilles ont découvert de nombreuses sépultures, formant quasiment une très ancienne nécropole autour de la source située entre la colline et le fond marécageux du vallon[2] . La grand route romaine Reins-Trêves passe à proximité.  Une chapelle y est construite au Xe siècle. En 1070, un groupe de bénédictins, venus de la Calabre (Italie), y bâtit une église et un prieuré, sur des terres données en usufruit par le comte de Chiny, Arnoul Ier, et par le comte Conrad Ier, comte de Luxembourg.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fondation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site de l'abbaye est occupé bien avant l'ère chrétienne: les fouilles ont découvert de nombreuses sépultures, formant quasiment une très ancienne nécropole autour de la source située entre la colline et le fond marécageux du vallon . La grand route romaine Reins-Trêves passe à proximité.  Une chapelle y est construite au Xe siècle. En 1070, un groupe de bénédictins, venus de la Calabre (Italie), y bâtit une église et un prieuré, sur des terres données en usufruit par le comte de Chiny, Arnoul Ier, et par le comte Conrad Ier, comte de Luxembourg.
 Vers 1076, la suzeraine, Mathilde de Toscane, comtesse de Briey, passe dans la région et ratifie la donation faite par son vassal aux moines bénédictins. C’est à cette époque qu’aurait eu lieu le célèbre incident de l’anneau tombé dans une fontaine et reparu comme miraculeusement. Du passage de la duchesse de Toscane, l’abbaye a reçu son nom « Vallis aurea » (Val d’or ) et son blason (anneau d’or dans la bouche d’un poisson). Aujourd’hui encore la fontaine Mathilde en perpétue la mémoire.
-Au bout d'une quarantaine d'années — et pour des raisons inconnues — les bénédictins quittent les lieux. Le comte Othon leur substitue, en 1110, une communauté de chanoines augustins[1]. Une première église, dédiée à Notre-Dame, est inaugurée le 30 septembre 1124 par l'évêque de Verdun, Henri de Blois. Elle mesure 53 mètres de long et 25 mètres de large. Les chanoines souhaitent cependant se joindre à l'ordre cistercien en plein essor.
-Passage à l'ordre de Cîteaux
-Albert de Chiny, secondé par son oncle, le saint évêque de Verdun Alberon de Chiny, se tourne vers Bernard de Clairvaux qui demande à sa première fondation, l'abbaye de Trois-Fontaines en Champagne d'envoyer quelques moines cisterciens encadrer les chanoines d'Orval qui souhaitent passer à l'ordre de Cîteaux[3].
-Constantin — un Bienheureux d’après le ménologe cistercien — dirige le groupe, en étant ainsi le premier des 52 Abbés qui s'y sont succédé entre 1131 et 1799[4]. En mars 1131, Orval devient abbaye-fille de Trois-Fontaines et, en fait, toute première abbaye cistercienne dans la région. Les bâtiments sont adaptés aux besoins monastiques. Thierry de Vitry, deuxième Abbé, crée la première bibliothèque d'Orval en faisant copier livres et manuscrits se trouvant en d'autres abbayes. Adam de Longwy, quatrième(?) abbé (1167-1173), met en chantier la construction de l’abbatiale. L'église est terminée avant 1200. le domaine agricole et forestier est progressivement agrandi: l'abbaye organise sur les terres qui lui sont offertes plusieurs "granges" - exploitations agricoles situées à une certaine distance, et mises en valeur par les frères convers qui y résident la semaine: Blanchampagne, Conques, etc.
+Au bout d'une quarantaine d'années — et pour des raisons inconnues — les bénédictins quittent les lieux. Le comte Othon leur substitue, en 1110, une communauté de chanoines augustins. Une première église, dédiée à Notre-Dame, est inaugurée le 30 septembre 1124 par l'évêque de Verdun, Henri de Blois. Elle mesure 53 mètres de long et 25 mètres de large. Les chanoines souhaitent cependant se joindre à l'ordre cistercien en plein essor.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Passage à l'ordre de Cîteaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert de Chiny, secondé par son oncle, le saint évêque de Verdun Alberon de Chiny, se tourne vers Bernard de Clairvaux qui demande à sa première fondation, l'abbaye de Trois-Fontaines en Champagne d'envoyer quelques moines cisterciens encadrer les chanoines d'Orval qui souhaitent passer à l'ordre de Cîteaux.
+Constantin — un Bienheureux d’après le ménologe cistercien — dirige le groupe, en étant ainsi le premier des 52 Abbés qui s'y sont succédé entre 1131 et 1799. En mars 1131, Orval devient abbaye-fille de Trois-Fontaines et, en fait, toute première abbaye cistercienne dans la région. Les bâtiments sont adaptés aux besoins monastiques. Thierry de Vitry, deuxième Abbé, crée la première bibliothèque d'Orval en faisant copier livres et manuscrits se trouvant en d'autres abbayes. Adam de Longwy, quatrième(?) abbé (1167-1173), met en chantier la construction de l’abbatiale. L'église est terminée avant 1200. le domaine agricole et forestier est progressivement agrandi: l'abbaye organise sur les terres qui lui sont offertes plusieurs "granges" - exploitations agricoles situées à une certaine distance, et mises en valeur par les frères convers qui y résident la semaine: Blanchampagne, Conques, etc.
 Les débuts n'en sont pas moins difficiles et la communauté vit longtemps dans l'indigence. Un incendie, en 1252, n'arrange rien. L'endettement est si grave que le chapitre général de Cîteaux, en sa session de 1316, autorise l'abbé de Trois-Fontaines à fermer Orval, vendre ses biens et disperser les religieux dans d'autres maisons.
 L'abbé n'en fait rien cependant. Durant quatre siècles, Orval vit l'existence effacée d'un monastère perdu dans la solitude de la grande forêt ardennaise. Certaines périodes sont prospères et d'autres difficiles. Située en effet à la frontière entre le royaume de France et l'Empire, Orval subit les conséquences des guerres et conflits du XVe siècle au XVIIe siècle.
-XVIIe siècle
-Marqué par les longs abbatiats de deux grandes personnalités, Orval retrouve prospérité et réputation de sainteté durant le XVIIe siècle. Bernard de Montgaillard, imposé comme abbé par l'archiduc Albert en 1605, est d'abord mal reçu par les moines. Mais il parvient à s'imposer et introduit progressivement un retour aux pratiques religieuses régulières. Il acquiert l'estime des moines et rapproche l'abbaye du peuple des alentours. La nouvelle réputation d'Orval attire : durant son abbatiat (de 1605 à 1628) le nombre de moines augmente sensiblement. Montgaillard, proche des archiducs Albert et Isabelle contribue avec eux à propager la dévotion pour Notre-Dame de Montaigu en lui érigeant une chapelle dans les bois de l'abbaye ; elle est contemporaine de la basilique de Montaigu (Scherpenheuvel)[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>XVIIe siècle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marqué par les longs abbatiats de deux grandes personnalités, Orval retrouve prospérité et réputation de sainteté durant le XVIIe siècle. Bernard de Montgaillard, imposé comme abbé par l'archiduc Albert en 1605, est d'abord mal reçu par les moines. Mais il parvient à s'imposer et introduit progressivement un retour aux pratiques religieuses régulières. Il acquiert l'estime des moines et rapproche l'abbaye du peuple des alentours. La nouvelle réputation d'Orval attire : durant son abbatiat (de 1605 à 1628) le nombre de moines augmente sensiblement. Montgaillard, proche des archiducs Albert et Isabelle contribue avec eux à propager la dévotion pour Notre-Dame de Montaigu en lui érigeant une chapelle dans les bois de l'abbaye ; elle est contemporaine de la basilique de Montaigu (Scherpenheuvel).
 Quelques années après la mort de l'abbé de Montgaillard, au plus fort de la guerre de Trente Ans, l'abbaye est pillée et incendiée le 2 août 1637 par les soldats du maréchal de Châtillon.
-La période qui suit est plus paisible sur le plan politique et la communauté retrouve équilibre et prospérité sous la direction de l'Abbé Charles de Bentzeradt. Le 45e abbé d’Orval (de 1668 à 1707), encouragé par l’Abbé de Rancé qu’il rencontra plusieurs fois, poursuit l’œuvre de l'Abbé de Montgaillard, imposant un retour aux observances originelles de Cîteaux : abstinence totale de viande, travaux manuels pour tous, longues périodes de jeûnes. Orval adopte le coutumier de l’abbaye de la Trappe après y avoir envoyé quelques moines pour y être formés[6]. Plus dur est le régime, plus nombreuses sont les vocations! Bien que plusieurs fondations aient été faites, le nombre de moines à Orval dépasse la centaine à la mort de l'Abbé de Bentzeradt.
-Crise janséniste
-Cependant, par le retour à l'observance primitive, l'Abbé permet à un esprit janséniste de s’introduire dans la communauté. Cela conduit à la plus grande crise que connaîtra l’abbaye. Il accepte comme moines dans son abbaye des jansénistes militants. Sous son abbatiat l’abbaye est un centre important de rayonnement janséniste. Orval est en rapports étroits avec l’abbaye de Port-Royal. Pierre Nicole se réfugie quelque temps à Orval, mais  sa présence devient encombrante. Par prudence, l'Abbé lui demande de quitter son abbaye.
+La période qui suit est plus paisible sur le plan politique et la communauté retrouve équilibre et prospérité sous la direction de l'Abbé Charles de Bentzeradt. Le 45e abbé d’Orval (de 1668 à 1707), encouragé par l’Abbé de Rancé qu’il rencontra plusieurs fois, poursuit l’œuvre de l'Abbé de Montgaillard, imposant un retour aux observances originelles de Cîteaux : abstinence totale de viande, travaux manuels pour tous, longues périodes de jeûnes. Orval adopte le coutumier de l’abbaye de la Trappe après y avoir envoyé quelques moines pour y être formés. Plus dur est le régime, plus nombreuses sont les vocations! Bien que plusieurs fondations aient été faites, le nombre de moines à Orval dépasse la centaine à la mort de l'Abbé de Bentzeradt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Crise janséniste</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cependant, par le retour à l'observance primitive, l'Abbé permet à un esprit janséniste de s’introduire dans la communauté. Cela conduit à la plus grande crise que connaîtra l’abbaye. Il accepte comme moines dans son abbaye des jansénistes militants. Sous son abbatiat l’abbaye est un centre important de rayonnement janséniste. Orval est en rapports étroits avec l’abbaye de Port-Royal. Pierre Nicole se réfugie quelque temps à Orval, mais  sa présence devient encombrante. Par prudence, l'Abbé lui demande de quitter son abbaye.
 La crise éclate au grand jour lorsque, par la bulle Unigenitus (1713) Clément XI condamne le jansénisme. Une large partie de la communauté monastique d’Orval, une des plus grandes de l’ordre cistercien, refuse de signer. Ils sont dénoncés à Rome, ce qui provoque une visite canonique du monastère, ordonnée par le pape Benoît XIII. Dom Jean-Mathieu Mommerts est Abbé. À peine la visite canonique est-elle commencée, en septembre 1735, qu’une quinzaine de moines prennent la fuite, de nuit, et se réfugient auprès de l’évêque janséniste d’Utrecht, où ils forment une communauté « orvaliste ». On découvre qu’ils étaient en correspondance avec Pasquier Quesnel et Duguet et gardaient dans leurs cellules des reliques et objets appartenant aux Arnauld.
 Leur départ apporte un dénouement à la crise. L’Abbé Albert de Meuldre, élu en 1741, quelque peu sympathisant janséniste, doit démissionner en 1757. Son successeur, Dom Pinart, ramène la paix dans la communauté.
-XVIIIe siècle
-Depuis la fin du XVIe siècle, Orval, située sur un cours d'eau au cœur d'une vaste forêt, peut développer une importante industrie sidérurgique, sur le site de l'abbaye et aussi en des points plus éloignés de son domaine. A la fin du XVIIIe siècle, ces revenus, ajoutés au fruit du travail d'une communauté devenue nombreuse, permettent à l'abbé Menne Effleur d'envisager la construction d'un nouveau complexe monastique, juste à côté de celui existant, qui est en mauvais état suite aux siècles, incendies et destructions, et trop petit pour une communauté florissante. L'architecte Laurent Benoît Dewez en dresse les plans, de style classique, et les nouveaux bâtiments sont érigés juste au sud des bâtiments existants, sur d'impressionnantes fondations de caves voûtées, sur une étendue de 3 hectares, rendues nécessaires par le terrain marécageux. En juillet 1792, ils ne sont pas terminés — il manque encore l'aile nord, dont la construction aurait nécessité la destruction de l'ancien monastère — lorsque les troupes révolutionnaires françaises envahissent la principauté de Liège et les Pays-Bas autrichiens. Elles remportent la bataille de Jemappes sur les Autrichiens le 6 novembre 1792. Le pouvoir révolutionnaire ferme les yeux sur le pillage des abbayes, monastères, couvents et, en 1793, les troupes du général Loison détruisent à coups de canon, puis incendient l'abbaye d'Orval; et la communauté est dispersée. Avant d'y mettre le feu, les soldats ont fouillé partout car, comme d'autres, ils ont entendu dire que les religieux avaient enterré de nombreux objets précieux… Des paysans ont juré avoir vu des hommes, vêtus de l'habit monastique, enfouir notamment des calices et des ciboires en or: en réalité, les objets de valeur, notamment les livres de la riche bibliothèque, avaient été mis à l'abri et la quasi-totalité des moines avaient quitté l'abbaye pour la maison-refuge de Montmédy. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>XVIIIe siècle</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis la fin du XVIe siècle, Orval, située sur un cours d'eau au cœur d'une vaste forêt, peut développer une importante industrie sidérurgique, sur le site de l'abbaye et aussi en des points plus éloignés de son domaine. A la fin du XVIIIe siècle, ces revenus, ajoutés au fruit du travail d'une communauté devenue nombreuse, permettent à l'abbé Menne Effleur d'envisager la construction d'un nouveau complexe monastique, juste à côté de celui existant, qui est en mauvais état suite aux siècles, incendies et destructions, et trop petit pour une communauté florissante. L'architecte Laurent Benoît Dewez en dresse les plans, de style classique, et les nouveaux bâtiments sont érigés juste au sud des bâtiments existants, sur d'impressionnantes fondations de caves voûtées, sur une étendue de 3 hectares, rendues nécessaires par le terrain marécageux. En juillet 1792, ils ne sont pas terminés — il manque encore l'aile nord, dont la construction aurait nécessité la destruction de l'ancien monastère — lorsque les troupes révolutionnaires françaises envahissent la principauté de Liège et les Pays-Bas autrichiens. Elles remportent la bataille de Jemappes sur les Autrichiens le 6 novembre 1792. Le pouvoir révolutionnaire ferme les yeux sur le pillage des abbayes, monastères, couvents et, en 1793, les troupes du général Loison détruisent à coups de canon, puis incendient l'abbaye d'Orval; et la communauté est dispersée. Avant d'y mettre le feu, les soldats ont fouillé partout car, comme d'autres, ils ont entendu dire que les religieux avaient enterré de nombreux objets précieux… Des paysans ont juré avoir vu des hommes, vêtus de l'habit monastique, enfouir notamment des calices et des ciboires en or: en réalité, les objets de valeur, notamment les livres de la riche bibliothèque, avaient été mis à l'abri et la quasi-totalité des moines avaient quitté l'abbaye pour la maison-refuge de Montmédy. 
 Après la destruction de l'abbaye, et avec la constitution civile du clergé, la communauté est supprimée et dispersée. Plusieurs moines seront emprisonnés ; le frère Malachie Bertrand mourra au bagne de Guyane. Les ruines de l'abbaye serviront de carrière de pierre aux habitants des environs.
-Ancienne abbaye
-Dépendance
-Prieuré de Conques. En 1173, le domaine de Conques est offert par le comte Louis III de Chiny aux moines d’Orval. Pour en développer les ressources agricoles et forestières, l’Abbé Adam de Longwy y établit une grange cistercienne. La destinée de Conques change lorsque Charles de Bentzeradt, abbé réformateur d’Orval décide d'en faire une maison d'études pour ses moines. À la fin du XVIIe siècle, la grange est alors érigée en prieuré. Elle est aujourd'hui transformée en hôtel.
-Personnalités
-Gilles d'Orval (XIIIe siècle), auteur de la première chronique de la principauté de Liège.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ancienne abbaye</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Dépendance</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Prieuré de Conques. En 1173, le domaine de Conques est offert par le comte Louis III de Chiny aux moines d’Orval. Pour en développer les ressources agricoles et forestières, l’Abbé Adam de Longwy y établit une grange cistercienne. La destinée de Conques change lorsque Charles de Bentzeradt, abbé réformateur d’Orval décide d'en faire une maison d'études pour ses moines. À la fin du XVIIe siècle, la grange est alors érigée en prieuré. Elle est aujourd'hui transformée en hôtel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ancienne abbaye</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Personnalités</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Gilles d'Orval (XIIIe siècle), auteur de la première chronique de la principauté de Liège.
 Antoine Perrin (1738-1788), frère convers et célèbre pharmacien.
-Jean-Louis Gilson, en religion « frère Abraham » (1741-1809), frère convers et artiste-peintre.
-Orval aux XX° et XXI° siècles
-Renaissance
-A part quelques travaux de consolidation fin XIX° et début XX°s., le site reste en ruines jusqu'en 1926: cette année-là,  la famille de Harenne, propriétaire des lieux, décide de les offrir aux trappistes, après une rencontre avec le P. Abbé de l'abbaye de  La Trappe et son cellérier ( càd économe), le P. Marie-Albert Van der Cruyssen, qui étaient en quête d'un refuge pour la communauté de La Trappe dans l'éventualité d'une nouvelle expulsion des congrégations par la République française. Mais c'est l'abbaye de Sept-Fons qui entreprend le rétablissement de l'abbaye . Un groupe de moines venus de Maris Stella, fondation de Sept-Fons au Brésil, forme le noyau de la nouvelle communauté monastique, sous la direction du Père Marie-Albert van der Cruyssen [6]: il avait été entrepreneur  ( spécialisé en expositions internationales...), animateur du mouvement politique des classes moyennes, puis officier du génie et héros de guer en 14-18, avant d'entrer à l'abbaye de la Trappe,. Il mit son expérience d'entrepreneur, son énergie, ses nombreuses relations et son sens de la publicité au service de ce qui devient sous son impulsion le "grand oeuvre national de la résurrection d'Orval".
+Jean-Louis Gilson, en religion « frère Abraham » (1741-1809), frère convers et artiste-peintre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Orval aux XX° et XXI° siècles</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Renaissance</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A part quelques travaux de consolidation fin XIX° et début XX°s., le site reste en ruines jusqu'en 1926: cette année-là,  la famille de Harenne, propriétaire des lieux, décide de les offrir aux trappistes, après une rencontre avec le P. Abbé de l'abbaye de  La Trappe et son cellérier ( càd économe), le P. Marie-Albert Van der Cruyssen, qui étaient en quête d'un refuge pour la communauté de La Trappe dans l'éventualité d'une nouvelle expulsion des congrégations par la République française. Mais c'est l'abbaye de Sept-Fons qui entreprend le rétablissement de l'abbaye . Un groupe de moines venus de Maris Stella, fondation de Sept-Fons au Brésil, forme le noyau de la nouvelle communauté monastique, sous la direction du Père Marie-Albert van der Cruyssen : il avait été entrepreneur  ( spécialisé en expositions internationales...), animateur du mouvement politique des classes moyennes, puis officier du génie et héros de guer en 14-18, avant d'entrer à l'abbaye de la Trappe,. Il mit son expérience d'entrepreneur, son énergie, ses nombreuses relations et son sens de la publicité au service de ce qui devient sous son impulsion le "grand oeuvre national de la résurrection d'Orval".
 L'abbaye d'aujourd'hui a surgi à côté des ruines médiévales, en grande partie ( église et bâtiments communautaires) sur les imposantes fondations de caves voûtées posées par l'architecte Laurent-Benoît Dewez au XVIIIe siècle; le déblaiement des débris à lui seul a été une tâche d'envergure, à laquelle ont collaboré pendant des années de nombreuses troupes scoutes qui se sont succédé sur le chantier, et pour qui l'ancienne chapelle  N.-D. de Montaigu, située sur le versant boisé qui surmonte l'abbaye médiévale, a été transformée en "chapelle des scouts".  Le principal matériau employé est la pierre de la région, d'un ton jaune doré ( d'où le nom "Orval") - parfois broyée et reconstituée. 
-Les plans et le suivi de l'énorme chantier furent l'oeuvre de l'architecte Henri Vaes, ami de Charles van der Cruyssen, qui s'est totalement dévoué à cette oeuvre, et qui dessina également les plans - de style plus moderne -  de l'abbaye (fille d'Orval) des trappistines de Cordemoy, près de Bouillon, et ceux, de style art déco, du prieuré de Sorée, où Dom Marie-Albert installa une communauté de "bernardines réparatrices" qu'il avait créée. Les nouveaux bâtiments d'Orval, quant à eux, sont en roman bourguignon, en particulier dans le sillage de l'abbaye de Fontenay, mais interprété dans un sens moderne. Le peintre Albert Servaes peint le chemin de croix de l'église, Lode Vleeschouwers sculpte la monumentale vierge de la façade; , le sculpteur Oscar Jespers[7] et Camille Barthélemy ont contribué à la renaissance d'Orval[1]. Le marbre de Tchécoslovaquie a été utilisé pour la décoration intérieure, pour le trône abbatial (supprimé après la réforme liturgique de Vatican II), pour les autels latéraux, etc.; les stalles de l'église et les portes intérieures et extérieures du monastère sont en bois du Congo. Après la mort de l'architecte Henri Vaes, son neveu termina le chantier, et en particulier le quartier abbatial, marqué par une inflation du spectaculaire.  
-Le prieuré, qui dépendait de Sept-Fons, est érigé en abbaye autonome par décision du Chapitre général de l'Ordre cistercien, confirmée par le Saint Siège le 13 décembre 1935. Le 29 février 1936, l'élection abbatiale fait de Dom Marie-Albert le premier Abbé de la nouvelle abbaye, le 53e de la lignée historique des abbés d'Orval. Le 5 juin 1939, l'église abbatiale est bénite ( jusque là, la communauté célébrait l'office dans des caves aménagées en chapelle) mais les travaux pour son achèvement sont ralentis par la guerre. Enfin, elle est consacrée et élevée au rang de basilique mineure le 8 septembre 1948[6]. Dans l'ordre cistercien, l'Abbaye d'Orval a désormais comme "père immédiat" ( càd comme "superviseur") l'abbé de Westmalle, à qui l'abbaye de Sept-fons a transféré ce rôle qu'elle jouait en tant que communauté fondatrice: ce transfert n'est pas sans rapport avec les tensions entre le P. Van der Cruyssen et l'abbé de Sept-Fons, et même avec l'ordre cistercien comme tel, à propos des aspects triomphalistes et excessifs des constructions, où se sent le passé d'entrepreneur de constructions visant à faire impression du P. Marie-Albert (tour et statues de la Vierge gigantesques, statues monumentales des saints fondateurs, chapelle privée de l'abbé, oeuvres d'art, quartier abbatial grandiloquent ), contraires à l'esprit cistercien de simplicité.
+Les plans et le suivi de l'énorme chantier furent l'oeuvre de l'architecte Henri Vaes, ami de Charles van der Cruyssen, qui s'est totalement dévoué à cette oeuvre, et qui dessina également les plans - de style plus moderne -  de l'abbaye (fille d'Orval) des trappistines de Cordemoy, près de Bouillon, et ceux, de style art déco, du prieuré de Sorée, où Dom Marie-Albert installa une communauté de "bernardines réparatrices" qu'il avait créée. Les nouveaux bâtiments d'Orval, quant à eux, sont en roman bourguignon, en particulier dans le sillage de l'abbaye de Fontenay, mais interprété dans un sens moderne. Le peintre Albert Servaes peint le chemin de croix de l'église, Lode Vleeschouwers sculpte la monumentale vierge de la façade; , le sculpteur Oscar Jespers et Camille Barthélemy ont contribué à la renaissance d'Orval. Le marbre de Tchécoslovaquie a été utilisé pour la décoration intérieure, pour le trône abbatial (supprimé après la réforme liturgique de Vatican II), pour les autels latéraux, etc.; les stalles de l'église et les portes intérieures et extérieures du monastère sont en bois du Congo. Après la mort de l'architecte Henri Vaes, son neveu termina le chantier, et en particulier le quartier abbatial, marqué par une inflation du spectaculaire.  
+Le prieuré, qui dépendait de Sept-Fons, est érigé en abbaye autonome par décision du Chapitre général de l'Ordre cistercien, confirmée par le Saint Siège le 13 décembre 1935. Le 29 février 1936, l'élection abbatiale fait de Dom Marie-Albert le premier Abbé de la nouvelle abbaye, le 53e de la lignée historique des abbés d'Orval. Le 5 juin 1939, l'église abbatiale est bénite ( jusque là, la communauté célébrait l'office dans des caves aménagées en chapelle) mais les travaux pour son achèvement sont ralentis par la guerre. Enfin, elle est consacrée et élevée au rang de basilique mineure le 8 septembre 1948. Dans l'ordre cistercien, l'Abbaye d'Orval a désormais comme "père immédiat" ( càd comme "superviseur") l'abbé de Westmalle, à qui l'abbaye de Sept-fons a transféré ce rôle qu'elle jouait en tant que communauté fondatrice: ce transfert n'est pas sans rapport avec les tensions entre le P. Van der Cruyssen et l'abbé de Sept-Fons, et même avec l'ordre cistercien comme tel, à propos des aspects triomphalistes et excessifs des constructions, où se sent le passé d'entrepreneur de constructions visant à faire impression du P. Marie-Albert (tour et statues de la Vierge gigantesques, statues monumentales des saints fondateurs, chapelle privée de l'abbé, oeuvres d'art, quartier abbatial grandiloquent ), contraires à l'esprit cistercien de simplicité.
 article détaillé: Marie-Albert van der Cruyssen    
 Au P. Marie-Albert Van Der Cruyssen, démissionnaire pour raison de santé en 1950,  ont succédé comme abbés d'Orval Vincent de Paul Sonthonnax, François-Xavier Hanin, Etienne Gillard, Denis De Busschère, Eric Dion, Matthieu Cauwe, Lode Van Hecke - qui a été nommé évêque de Gand en 2020.  
 La communauté comptait une cinquantaine de moines en 1970, lors du IX° centenaire du monastère; en 2024, elle compte moins de dix frères. 
-Transformations architecturales
-Un complexe comme celui d'Orval est en constantes transformations. On en citera quelques unes: fin des années 60, le beau scriptorium (salle de lecture) à côté de l'église est transformé en chapelle d'hiver, qui servira jusque vers 2015. Dans les années 70, les dortoirs qu'occupaient les moines et l'infirmerie sont  transformés en deux ailes de cellules individuelles et en extension de la bibliothèque . On construit aussi une nouvelle boulangerie, mais qui sera assez rapidement démontée et revendue. Dans les années 90, l'ancienne salle du chapitre, rarement utilisée, est  rénovée ; le bâtiment de la ferme est transformé en une fromagerie moderne, qui remplace celle qui se trouvait dans les caves. La brasserie elle aussi se transforme, par la construction d'abord d'une nouvelle salle de stock dans les années 80, elle-même transformée en nouvelle salle d'embouteillage lors de la construction d' une nouvelle salle de stock (2023) construite au flanc du vallon. 
-Dans l'église, une modernisation, réalisée par l'architecte Cosse en 2001, a adapté l'aménagement à la vie liturgique actuelle de la communauté: un nouvel et sobre autel moderne, en laiton doré, a été installé au débouché de la nef, plus proche du choeur des moines, qui occupent de nouvelles stalles en bois clair, de plain pied avec l'espace réservé à l'assemblée; douze colonnes de métal gris cachent l'ancien autel monumental, délimitant à l'arrière du choeur un espace de prière devant le tabernacle . On peut en voir un aperçu dans la visite virtuelle proposée sur le site internet de l'abbaye[8].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Abbaye_Notre-Dame_d%27Orval</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Transformations architecturales</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un complexe comme celui d'Orval est en constantes transformations. On en citera quelques unes: fin des années 60, le beau scriptorium (salle de lecture) à côté de l'église est transformé en chapelle d'hiver, qui servira jusque vers 2015. Dans les années 70, les dortoirs qu'occupaient les moines et l'infirmerie sont  transformés en deux ailes de cellules individuelles et en extension de la bibliothèque . On construit aussi une nouvelle boulangerie, mais qui sera assez rapidement démontée et revendue. Dans les années 90, l'ancienne salle du chapitre, rarement utilisée, est  rénovée ; le bâtiment de la ferme est transformé en une fromagerie moderne, qui remplace celle qui se trouvait dans les caves. La brasserie elle aussi se transforme, par la construction d'abord d'une nouvelle salle de stock dans les années 80, elle-même transformée en nouvelle salle d'embouteillage lors de la construction d' une nouvelle salle de stock (2023) construite au flanc du vallon. 
+Dans l'église, une modernisation, réalisée par l'architecte Cosse en 2001, a adapté l'aménagement à la vie liturgique actuelle de la communauté: un nouvel et sobre autel moderne, en laiton doré, a été installé au débouché de la nef, plus proche du choeur des moines, qui occupent de nouvelles stalles en bois clair, de plain pied avec l'espace réservé à l'assemblée; douze colonnes de métal gris cachent l'ancien autel monumental, délimitant à l'arrière du choeur un espace de prière devant le tabernacle . On peut en voir un aperçu dans la visite virtuelle proposée sur le site internet de l'abbaye.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Orval aujourd'hui</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Economie et activités
-La reconstruction de l'abbaye a été financée par les revenus de la brasserie qui a été installée en 1935, mais aussi grâce à diverses formes de mécénat public et privé: donations, vente des célèbres "timbres d'Orval", subside de la loterie nationale, etc. 
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Economie et activités</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La reconstruction de l'abbaye a été financée par les revenus de la brasserie qui a été installée en 1935, mais aussi grâce à diverses formes de mécénat public et privé: donations, vente des célèbres "timbres d'Orval", subside de la loterie nationale, etc. 
 La tradition cistercienne associe étroitement la prière, la vie fraternelle et le travail manuel: "ora et labora". Depuis 1926, les formes et les domaines du travail exercé par les moines d'Orval ont évolué en fonction des circonstances et du nombre de moines. Une part importante du travail est liée à la vie même de la communauté: ménage et entretien des lieux, accueil des hôtes, travaux intellectuels, gestion du site . Jusqu'en 1975, l'agriculture - surtout l'élevage, et un important potager, a tenu une grande place; le travail forestier est toujours à l'ordre du jour. A côté de la brasserie, la fromagerie s'est développée progressivement; elle produit un fromage de type port-salut; elle a longtemps fabriqué aussi un fromage de type cheddar. Grâce à des ruchers, le travail des frères produit aussi du miel et des bonbons au miel; dans les années 80,  du pain trappiste a été commercialisé.    
 Actuellement, à l'exception. de certaines tâches annexes assurées par les moines, comme certains emballages, ou la récente fabrication de fromage à tartiner consommé à l'hôtellerie, la fromagerie et la brasserie n'occupent plus que du personnel laïc : leurs revenus sont consacrés à l'entretien des bâtiments et à la solidarité, par le soutien à diverses oeuvres ou associations sociales.   
-La brasserie
-En 1931, l'installation d'une brasserie au sein même de l'abbaye fut décidée afin d'aider financièrement à la construction du nouveau monastère. Actuellement et dans la tradition cistercienne, la communauté monastique consacre principalement à l'aide sociale les revenus liés à la bière vendue sous la marque Orval. Il n'existe que onze brasseries trappistes au monde dont six en Belgique[9]. Seules les bières brassées au sein d'une abbaye, sous le contrôle des moines cisterciens qui y vivent, ont le droit de porter cette appellation. La  bière brassée et commercialisée par l'abbaye ( on dit "un Orval", et non pas "une Orval") est ambrée,  de fermentation haute (6,2 % d'alcool) et se caractérise par un arôme et une amertume typiques. Il s'y ajoute la production très réduite d'une seconde bière, plus faiblement alcoolisée (4,5°), la "petite verte" - ainsi nommée parce qu'elle était autrefois embouteillée dans des bouteilles de cette couleur. Elle n'est consommée que par la communauté et par les hôtes, et à la brasserie de "l'Ange gardien", qui appartient à l'abbaye. 
-Accueil spirituel
-En ce début de XXIe siècle, le monastère a su devenir à la fois un lieu d'histoire remarquablement restauré, visité par des dizaines de milliers de touristes chaque année, et un lieu de ressourcement où une dizaine de moines cisterciens, prient, travaillent et accueillent des hôtes - hommes, femmes, jeunes, familles, croyants ou non [10], pour une retraite de quelques jours dans le silence monastique : l'hôtellerie compte quelques 80 chambres, et il s'y ajoute, hors de la zone de silence, un grand chalet qui accueille des groupes ou des familles.  
-En plus des retraites organisées, chaque année en été un rassemblement appelé "Orval jeunes en prière" réunit des dizaines de jeunes avec la communauté[11]
-Accueil touristique et culturel
-Par ailleurs, l'abbaye d'Orval constitue aujourd'hui, avec le tout proche château de Bouillon, un des principaux lieux touristiques de la province du Luxembourg.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Orval aujourd'hui</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Economie et activités</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>La brasserie</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1931, l'installation d'une brasserie au sein même de l'abbaye fut décidée afin d'aider financièrement à la construction du nouveau monastère. Actuellement et dans la tradition cistercienne, la communauté monastique consacre principalement à l'aide sociale les revenus liés à la bière vendue sous la marque Orval. Il n'existe que onze brasseries trappistes au monde dont six en Belgique. Seules les bières brassées au sein d'une abbaye, sous le contrôle des moines cisterciens qui y vivent, ont le droit de porter cette appellation. La  bière brassée et commercialisée par l'abbaye ( on dit "un Orval", et non pas "une Orval") est ambrée,  de fermentation haute (6,2 % d'alcool) et se caractérise par un arôme et une amertume typiques. Il s'y ajoute la production très réduite d'une seconde bière, plus faiblement alcoolisée (4,5°), la "petite verte" - ainsi nommée parce qu'elle était autrefois embouteillée dans des bouteilles de cette couleur. Elle n'est consommée que par la communauté et par les hôtes, et à la brasserie de "l'Ange gardien", qui appartient à l'abbaye. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Orval aujourd'hui</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Accueil spirituel</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En ce début de XXIe siècle, le monastère a su devenir à la fois un lieu d'histoire remarquablement restauré, visité par des dizaines de milliers de touristes chaque année, et un lieu de ressourcement où une dizaine de moines cisterciens, prient, travaillent et accueillent des hôtes - hommes, femmes, jeunes, familles, croyants ou non , pour une retraite de quelques jours dans le silence monastique : l'hôtellerie compte quelques 80 chambres, et il s'y ajoute, hors de la zone de silence, un grand chalet qui accueille des groupes ou des familles.  
+En plus des retraites organisées, chaque année en été un rassemblement appelé "Orval jeunes en prière" réunit des dizaines de jeunes avec la communauté
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Orval aujourd'hui</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Accueil touristique et culturel</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par ailleurs, l'abbaye d'Orval constitue aujourd'hui, avec le tout proche château de Bouillon, un des principaux lieux touristiques de la province du Luxembourg.  
 Le secteur ouvert au tourisme est limité au domaine des ruines médiévales: on ne visite ni l'abbaye moderne, ni l'église, qui sont des lieux de silence, ni la brasserie ou la fromagerie. Les touristes n'ont accès qu'à la tribune de l'église, et en dehors de les offices; - mais toutes les personnes qui souhaitent participer à la prière de la communauté y sont accueillies à l'heure des offices.  
 Au fil des années, la "visite des ruines" s'est transformée par l'aménagement de diverses installations. Après avoir pu jeter un coup d'oeil sur la charmante petite "cour des aumônes" de l'hôtellerie, et être passé par le magasin, la visite commence par un bâtiment reconstruit sur l'emplacement de celui qui accueillait les réunions des Etats généraux du duché de Luxembourg: au premier niveau, on accède à une présentation audio-visuelle de l'histoire d'Orval et de la vie monastique, dans une mise en scène virtuelle qui évoque le "scriptorium" d'un monastère médiéval. A l'étage, plusieurs maquettes de grande taille montrent ce qu'étaient l'abbaye médiévale, puis l'abbaye néo-classique du XVIII°s., puis le projet initial de reconstruction, enfin l'état actuel du site. Dans un petit bâtiment voisin sont installés les beaux meubles, ustensiles et instruments de l'ancienne "pharmacie" monastique - qui servait en fait de dispensaire pour toute la région; elle est précédée par un petit jardin de plantes médicinales. A gauche de l'entrée de l'église médiévale se trouve le bassin limpide de la célèbre "fontaine Mathilde", alimenté par la puissante source qui fournit l'eau de la brasserie; tout à côté, un bâtiment ancien ( "les communs d'Abraham") abrite un musée interactif sur l'histoire et la fabrication de la bière d'Orval, et un musée  consacré au frère Abraham, moine et peintre du XVIII°s, qui aurait eu son atelier dans ce bâtiment. Les ruines proprement dites comportent l'église avec sa célèbre rosace ( une application permet de visualiser ce qu'elle était autrefois), la salle du chapitre et les vestiges du cloître, enfin "l'aile des moines" du XVI°s. récemment découverte. Celle-ci conduit au musée installé dans les caves voûtées sous l'abbaye moderne.   
 Ce musée, créé en 1970 et récemment agrandi, comporte des salles historiques présentant de nombreux objets et documents des 9 siècles d'histoire d'Orval, et des salles d'art religieux contemporain : deux "chapelles" de méditation , et une galerie où sont régulièrement organisées des expositions d'art . 
 A la fin de la visite, les visiteurs peuvent passer au magasin qui propose le fromage et la bière (en quantité limitée par personne) de l'abbaye, des objets religieux ou souvenirs, et une librairie religieuse bien fournie. 
-Toujours pour préserver l'ambiance de calme et de silence, il n'y a pas dans l'enceinte de l'abbaye de possibilité de dégustation ou de restauration:  mais à quelques centaines de mètre, en face du bel étang des forges, qui alimentait les moulins et marteaux-pilons de l'usine sidérurgique des XVII° et XVIII°s. dont la grande halle a été conservée de l'autre côté de la grand route,  a été construite et récemment agrandie l'auberge de l'ange gardien, qui propose une offre variée et "tous budgets" [12].  
-Découvertes archéologiques et projets
-À l'occasion du 900e anniversaire en 1970, un musée d’histoire monastique avait été créé dans les caves du 18e siècle.  La nécessité de moderniser les lieux, notamment en prévoyant un second accès, est apparue et a conduit à la découverte d'une arcade en plein cintre créée par l’architecte Henry Vaes, en dessous de la chapelle royale, au moment de la reconstruction dans les années trente. Cette porte n’a jamais servi, elle avait rapidement été condamnée et enterrée.  
+Toujours pour préserver l'ambiance de calme et de silence, il n'y a pas dans l'enceinte de l'abbaye de possibilité de dégustation ou de restauration:  mais à quelques centaines de mètre, en face du bel étang des forges, qui alimentait les moulins et marteaux-pilons de l'usine sidérurgique des XVII° et XVIII°s. dont la grande halle a été conservée de l'autre côté de la grand route,  a été construite et récemment agrandie l'auberge de l'ange gardien, qui propose une offre variée et "tous budgets" .  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Orval aujourd'hui</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Accueil touristique et culturel</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Découvertes archéologiques et projets</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'occasion du 900e anniversaire en 1970, un musée d’histoire monastique avait été créé dans les caves du 18e siècle.  La nécessité de moderniser les lieux, notamment en prévoyant un second accès, est apparue et a conduit à la découverte d'une arcade en plein cintre créée par l’architecte Henry Vaes, en dessous de la chapelle royale, au moment de la reconstruction dans les années trente. Cette porte n’a jamais servi, elle avait rapidement été condamnée et enterrée.  
 Dans la foulée, des fouilles ont été entreprises, durant l'été  2020, par le Service archéologique de la Région wallonne. Ces fouilles ont permis de déblayer une très grande partie de l’ancienne aile du XVIe siècle, extension du monastère médiéval qui accueillait entre autres le logement des moines de chœur et l’infirmerie. L’architecte Laurent-Benoît Dewez, au XVIIIe siècle, avait déjà enterré les vestiges de ce bâtiment du XVIe siècle avec de nombreux déblais de construction (fenêtres partiellement murées) et Henry Vaes a poursuivi ce comblement au moment de la reconstruction du XXe siècle. 
-Un très beau couloir latéral a désormais été dégagé. Sur la gauche de ce couloir, donnant sur l’arrière de la salle du chapitre médiéval, une succession de salles voutées conduit jusqu’à la porte en plein cintre, récemment mise au jour, qui est devenue la nouvelle entrée  du musée, qui a été agrandi et entièrement réaménagé. Au stade final du projet qui court jusqu'en 2026, année du centenaire de la « résurrection » d'Orval, le visiteur des ruines suivra un parcours chronologique partant du chœur cistercien du XIIe siècle, traversant le cloître médiéval, permettant la découverte des différentes pièces de l’aile du XVIe siècle et rentrant dans les caves du XVIIIe siècle qui abritent les collections du musée [13]. 
-Personnalités
-Charles van der Cruyssen ( Dom Marie-Albert), 1874-1955, restaurateur et 53° abbé d'Orval. 
-R.P. Adelin Rousseau ( 1913-2009)[14], qui a édité les oeuvres majeures d'Irénée de Lyon ( 140-200) ( " Contre les hérésies", en reconstituant le texte grec original à partir des traductions latines et arméniennes conservées) et les "sermons sur le Cantique des cantiques" de Grégoire de Nysse ( 355-395)
+Un très beau couloir latéral a désormais été dégagé. Sur la gauche de ce couloir, donnant sur l’arrière de la salle du chapitre médiéval, une succession de salles voutées conduit jusqu’à la porte en plein cintre, récemment mise au jour, qui est devenue la nouvelle entrée  du musée, qui a été agrandi et entièrement réaménagé. Au stade final du projet qui court jusqu'en 2026, année du centenaire de la « résurrection » d'Orval, le visiteur des ruines suivra un parcours chronologique partant du chœur cistercien du XIIe siècle, traversant le cloître médiéval, permettant la découverte des différentes pièces de l’aile du XVIe siècle et rentrant dans les caves du XVIIIe siècle qui abritent les collections du musée . 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Orval aujourd'hui</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Personnalités</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Charles van der Cruyssen ( Dom Marie-Albert), 1874-1955, restaurateur et 53° abbé d'Orval. 
+R.P. Adelin Rousseau ( 1913-2009), qui a édité les oeuvres majeures d'Irénée de Lyon ( 140-200) ( " Contre les hérésies", en reconstituant le texte grec original à partir des traductions latines et arméniennes conservées) et les "sermons sur le Cantique des cantiques" de Grégoire de Nysse ( 355-395)
 R.P. Lode Van Hecke ( 1950 - ), entré au monastère en 1976, élu abbé en 2007, nommé évêque de Gand en 2019.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Abbaye_Notre-Dame_d%27Orval</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>L'histoire de la comtesse Mathilde</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de l'abbaye (Val d'or) et ses armoiries, représentant un ruisseau d'azur d'où sort une bague ornée de trois diamants, rappellent la légende selon laquelle Mathilde de Toscane, comtesse de Briey et protectrice de l'abbaye, aurait perdu dans une source son anneau nuptial. Attristée par cette perte, souvenir de son défunt époux, elle demande aux quelques soldats qui l'accompagnent de le récupérer, en vain. Cependant, alors qu'ils allaient partir, celui-ci lui aurait été miraculeusement rendu par une truite et la comtesse aurait souhaité que la contrée fût nommée « Val d'or ». C'est pour rappeler cette légende que le verre d'Orval est décoré d'un poisson tenant dans sa bouche un anneau doré.
-Une autre version de la légende légèrement différente serait : « En 1076, une dame encore jeune, la comtesse Mathilde, duchesse de Toscane et tante de Godefroy de Bouillon, pleure son mari, Godefroy le Bossu, duc de Basse-Lotharingie. Mathilde se rend à Orval, un lieu alors isolé. Six ans plus tôt, des moines venus de Calabre ont débarqué non loin de là parce qu'ils fuyaient la guerre civile italienne. Ils ont frappé à la porte de l'archevêque de Trèves qui les a envoyés chez Arnould II, le comte de Chiny. C'est celui-ci qui a octroyé aux religieux des terres pour construire une abbaye. Ils se sont mis d'emblée au travail. La comtesse Mathilde marche lentement dans les allées de leur propriété. Elle aperçoit une pièce d'eau, machinalement, y plonge la main droite et, quelques secondes plus tard, la retire. Elle sursaute en éprouvant un pincement au cœur : l'anneau en or a glissé de son doigt ! Elle cherche, regarde partout, mais, hélas, aucune trace de l'objet. Une seule explication : l'anneau est tombé dans l'eau. Et Mathilde ne le distingue plus. Cette mésaventure peine particulièrement Mathilde. La bague était un cadeau de son défunt époux et l'ultime souvenir qu'elle possédait de lui. Désespérée, la comtesse prie la Vierge Marie. Elle a fermé les yeux. Lorsqu'elle les ouvre, Mathilde est stupéfaite : une truite a bondi de l'eau et tient dans sa gueule le précieux anneau ! La dame récupère son bien, remercie le Ciel et s'exclame : « Vraiment, c'est ici un val d'or ! » C'est cette histoire de la truite et de la bague qui explique le logo des produits encore fabriqués aujourd'hui à l'abbaye. La réputation de la richesse d'Orval — nom prédestiné — a traversé les siècles. »[15]
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Abbaye_Notre-Dame_d%27Orval</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Une autre version de la légende légèrement différente serait : « En 1076, une dame encore jeune, la comtesse Mathilde, duchesse de Toscane et tante de Godefroy de Bouillon, pleure son mari, Godefroy le Bossu, duc de Basse-Lotharingie. Mathilde se rend à Orval, un lieu alors isolé. Six ans plus tôt, des moines venus de Calabre ont débarqué non loin de là parce qu'ils fuyaient la guerre civile italienne. Ils ont frappé à la porte de l'archevêque de Trèves qui les a envoyés chez Arnould II, le comte de Chiny. C'est celui-ci qui a octroyé aux religieux des terres pour construire une abbaye. Ils se sont mis d'emblée au travail. La comtesse Mathilde marche lentement dans les allées de leur propriété. Elle aperçoit une pièce d'eau, machinalement, y plonge la main droite et, quelques secondes plus tard, la retire. Elle sursaute en éprouvant un pincement au cœur : l'anneau en or a glissé de son doigt ! Elle cherche, regarde partout, mais, hélas, aucune trace de l'objet. Une seule explication : l'anneau est tombé dans l'eau. Et Mathilde ne le distingue plus. Cette mésaventure peine particulièrement Mathilde. La bague était un cadeau de son défunt époux et l'ultime souvenir qu'elle possédait de lui. Désespérée, la comtesse prie la Vierge Marie. Elle a fermé les yeux. Lorsqu'elle les ouvre, Mathilde est stupéfaite : une truite a bondi de l'eau et tient dans sa gueule le précieux anneau ! La dame récupère son bien, remercie le Ciel et s'exclame : « Vraiment, c'est ici un val d'or ! » C'est cette histoire de la truite et de la bague qui explique le logo des produits encore fabriqués aujourd'hui à l'abbaye. La réputation de la richesse d'Orval — nom prédestiné — a traversé les siècles. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>L'abbaye d'Orval autrement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Dans la littérature
-Le tome 17 des aventures de Vasco, La Bête (scénario et dessin : Gilles Chaillet ; couleurs : Chantal Defachelle, Le Lombard, 1999) dans lequel les héros font halte à l'abbaye dans leur trajet entre La Roche et Bouillon.
-La bande dessinée Orval (Tome 1 [2009][16] et 2 [2010][17]), de Jean-Claude Servais, se passe dans l'abbaye d'Orval. Les éditions intégrales en blanc et noir[18] et colorisées[19] sont complétées d'une annexe historique de 18 pages : Orval, histoire de l'abbaye par Marc Heyde.
-La Prophétie d'Orval de Frédéric Kiesel[20].
-En Philatélie
-A l'époque de la reconstruction, dans le but de financer les travaux, plusieurs séries de timbres postaux belges ont été éditées souvent avec surtaxe. Ils avaient pour thème l'abbaye, les moines  et même les lettres à l'ancienne constituant le mot ORVAL</t>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Dans la littérature</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Le tome 17 des aventures de Vasco, La Bête (scénario et dessin : Gilles Chaillet ; couleurs : Chantal Defachelle, Le Lombard, 1999) dans lequel les héros font halte à l'abbaye dans leur trajet entre La Roche et Bouillon.
+La bande dessinée Orval (Tome 1  et 2 ), de Jean-Claude Servais, se passe dans l'abbaye d'Orval. Les éditions intégrales en blanc et noir et colorisées sont complétées d'une annexe historique de 18 pages : Orval, histoire de l'abbaye par Marc Heyde.
+La Prophétie d'Orval de Frédéric Kiesel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Abbaye_Notre-Dame_d'Orval</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_Notre-Dame_d%27Orval</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>L'abbaye d'Orval autrement</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>En Philatélie</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>A l'époque de la reconstruction, dans le but de financer les travaux, plusieurs séries de timbres postaux belges ont été éditées souvent avec surtaxe. Ils avaient pour thème l'abbaye, les moines  et même les lettres à l'ancienne constituant le mot ORVAL</t>
         </is>
       </c>
     </row>
